--- a/data/outputs/OR_altmetric/4.xlsx
+++ b/data/outputs/OR_altmetric/4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE215"/>
+  <dimension ref="A1:CF215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1025,6 +1030,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1527,6 +1538,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1780,6 +1794,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2027,6 +2044,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2274,6 +2294,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2533,6 +2556,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2788,6 +2814,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3047,6 +3076,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3290,6 +3322,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3533,6 +3568,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3776,6 +3814,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4019,6 +4060,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4270,6 +4314,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4517,6 +4564,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4770,6 +4820,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5019,6 +5072,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5258,6 +5314,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5501,6 +5560,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5748,6 +5810,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6003,6 +6068,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6250,6 +6318,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6505,6 +6576,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6748,6 +6822,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7005,6 +7082,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7248,6 +7328,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7503,6 +7586,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7754,6 +7840,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8009,6 +8098,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8248,6 +8340,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8491,6 +8586,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8742,6 +8840,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8993,6 +9094,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9248,6 +9352,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9487,6 +9594,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9742,6 +9852,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9997,6 +10110,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10252,6 +10368,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10503,6 +10622,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10758,6 +10880,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11013,6 +11138,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11260,6 +11388,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11515,6 +11646,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11770,6 +11904,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12017,6 +12154,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12264,6 +12404,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12515,6 +12658,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12766,6 +12912,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13009,6 +13158,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13256,6 +13408,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13503,6 +13658,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13758,6 +13916,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14009,6 +14170,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14262,6 +14426,9 @@
         <v>0</v>
       </c>
       <c r="CE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14503,6 +14670,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14754,6 +14924,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15007,6 +15180,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15254,6 +15430,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15501,6 +15680,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15744,6 +15926,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15983,6 +16168,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16222,6 +16410,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16461,6 +16652,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16700,6 +16894,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16947,6 +17144,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17198,6 +17398,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17453,6 +17656,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17708,6 +17914,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17955,6 +18164,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18214,6 +18426,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18469,6 +18684,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18720,6 +18938,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18967,6 +19188,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19206,6 +19430,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19445,6 +19672,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19684,6 +19914,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19939,6 +20172,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20182,6 +20418,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20431,6 +20670,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20682,6 +20924,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20929,6 +21174,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21184,6 +21432,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21435,6 +21686,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21688,6 +21942,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21939,6 +22196,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22194,6 +22454,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22449,6 +22712,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22700,6 +22966,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22955,6 +23224,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23210,6 +23482,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23457,6 +23732,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23712,6 +23990,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23967,6 +24248,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24206,6 +24490,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24445,6 +24732,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24684,6 +24974,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24939,6 +25232,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25194,6 +25490,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25445,6 +25744,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25684,6 +25986,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25919,6 +26224,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26174,6 +26482,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26417,6 +26728,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26660,6 +26974,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26903,6 +27220,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27146,6 +27466,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27385,6 +27708,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27640,6 +27966,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27895,6 +28224,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28134,6 +28466,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28389,6 +28724,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28636,6 +28974,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28891,6 +29232,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29148,6 +29492,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29395,6 +29742,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29650,6 +30000,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29909,6 +30262,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30158,6 +30514,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>10.85</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30413,6 +30772,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30668,6 +31030,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30923,6 +31288,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -31178,6 +31546,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31433,6 +31804,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31680,6 +32054,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31919,6 +32296,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -32176,6 +32556,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32431,6 +32814,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32680,6 +33066,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32935,6 +33324,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -33174,6 +33566,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -33423,6 +33818,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -33662,6 +34060,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33909,6 +34310,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -34160,6 +34564,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -34411,6 +34818,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -34662,6 +35072,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34911,6 +35324,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -35162,6 +35578,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -35409,6 +35828,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -35658,6 +36080,9 @@
         <v>0</v>
       </c>
       <c r="CE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35891,6 +36316,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -36140,6 +36568,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -36395,6 +36826,9 @@
       <c r="CE144" t="n">
         <v>0</v>
       </c>
+      <c r="CF144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -36638,6 +37072,9 @@
       <c r="CE145" t="n">
         <v>0</v>
       </c>
+      <c r="CF145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -36889,6 +37326,9 @@
       <c r="CE146" t="n">
         <v>0</v>
       </c>
+      <c r="CF146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -37146,6 +37586,9 @@
       <c r="CE147" t="n">
         <v>0</v>
       </c>
+      <c r="CF147" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -37397,6 +37840,9 @@
       <c r="CE148" t="n">
         <v>0</v>
       </c>
+      <c r="CF148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -37654,6 +38100,9 @@
       <c r="CE149" t="n">
         <v>0</v>
       </c>
+      <c r="CF149" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -37905,6 +38354,9 @@
       <c r="CE150" t="n">
         <v>0</v>
       </c>
+      <c r="CF150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -38160,6 +38612,9 @@
       <c r="CE151" t="n">
         <v>0</v>
       </c>
+      <c r="CF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -38399,6 +38854,9 @@
       <c r="CE152" t="n">
         <v>0</v>
       </c>
+      <c r="CF152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -38646,6 +39104,9 @@
       <c r="CE153" t="n">
         <v>0</v>
       </c>
+      <c r="CF153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -38889,6 +39350,9 @@
       <c r="CE154" t="n">
         <v>0</v>
       </c>
+      <c r="CF154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -39128,6 +39592,9 @@
       <c r="CE155" t="n">
         <v>0</v>
       </c>
+      <c r="CF155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -39375,6 +39842,9 @@
       <c r="CE156" t="n">
         <v>0</v>
       </c>
+      <c r="CF156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -39630,6 +40100,9 @@
       <c r="CE157" t="n">
         <v>0</v>
       </c>
+      <c r="CF157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -39883,6 +40356,9 @@
       <c r="CE158" t="n">
         <v>0</v>
       </c>
+      <c r="CF158" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -40134,6 +40610,9 @@
       <c r="CE159" t="n">
         <v>0</v>
       </c>
+      <c r="CF159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -40383,6 +40862,9 @@
       <c r="CE160" t="n">
         <v>0</v>
       </c>
+      <c r="CF160" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -40630,6 +41112,9 @@
       <c r="CE161" t="n">
         <v>0</v>
       </c>
+      <c r="CF161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -40887,6 +41372,9 @@
       <c r="CE162" t="n">
         <v>0</v>
       </c>
+      <c r="CF162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -41134,6 +41622,9 @@
       <c r="CE163" t="n">
         <v>0</v>
       </c>
+      <c r="CF163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -41373,6 +41864,9 @@
       <c r="CE164" t="n">
         <v>0</v>
       </c>
+      <c r="CF164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -41630,6 +42124,9 @@
       <c r="CE165" t="n">
         <v>0</v>
       </c>
+      <c r="CF165" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -41885,6 +42382,9 @@
       <c r="CE166" t="n">
         <v>0</v>
       </c>
+      <c r="CF166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -42140,6 +42640,9 @@
       <c r="CE167" t="n">
         <v>0</v>
       </c>
+      <c r="CF167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -42389,6 +42892,9 @@
       <c r="CE168" t="n">
         <v>0</v>
       </c>
+      <c r="CF168" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -42632,6 +43138,9 @@
       <c r="CE169" t="n">
         <v>0</v>
       </c>
+      <c r="CF169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -42881,6 +43390,9 @@
       <c r="CE170" t="n">
         <v>0</v>
       </c>
+      <c r="CF170" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -43128,6 +43640,9 @@
       <c r="CE171" t="n">
         <v>0</v>
       </c>
+      <c r="CF171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -43367,6 +43882,9 @@
       <c r="CE172" t="n">
         <v>0</v>
       </c>
+      <c r="CF172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -43610,6 +44128,9 @@
       <c r="CE173" t="n">
         <v>0</v>
       </c>
+      <c r="CF173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -43865,6 +44386,9 @@
       <c r="CE174" t="n">
         <v>0</v>
       </c>
+      <c r="CF174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -44122,6 +44646,9 @@
       <c r="CE175" t="n">
         <v>0</v>
       </c>
+      <c r="CF175" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -44361,6 +44888,9 @@
       <c r="CE176" t="n">
         <v>0</v>
       </c>
+      <c r="CF176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -44600,6 +45130,9 @@
       <c r="CE177" t="n">
         <v>0</v>
       </c>
+      <c r="CF177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -44855,6 +45388,9 @@
       <c r="CE178" t="n">
         <v>0</v>
       </c>
+      <c r="CF178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -45114,6 +45650,9 @@
       <c r="CE179" t="n">
         <v>0</v>
       </c>
+      <c r="CF179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -45357,6 +45896,9 @@
       <c r="CE180" t="n">
         <v>0</v>
       </c>
+      <c r="CF180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -45612,6 +46154,9 @@
       <c r="CE181" t="n">
         <v>0</v>
       </c>
+      <c r="CF181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -45863,6 +46408,9 @@
       <c r="CE182" t="n">
         <v>0</v>
       </c>
+      <c r="CF182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -46110,6 +46658,9 @@
       <c r="CE183" t="n">
         <v>0</v>
       </c>
+      <c r="CF183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -46365,6 +46916,9 @@
       <c r="CE184" t="n">
         <v>0</v>
       </c>
+      <c r="CF184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -46622,6 +47176,9 @@
       <c r="CE185" t="n">
         <v>0</v>
       </c>
+      <c r="CF185" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -46869,6 +47426,9 @@
       <c r="CE186" t="n">
         <v>0</v>
       </c>
+      <c r="CF186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -47124,6 +47684,9 @@
       <c r="CE187" t="n">
         <v>0</v>
       </c>
+      <c r="CF187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -47363,6 +47926,9 @@
       <c r="CE188" t="n">
         <v>0</v>
       </c>
+      <c r="CF188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -47618,6 +48184,9 @@
       <c r="CE189" t="n">
         <v>0</v>
       </c>
+      <c r="CF189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -47857,6 +48426,9 @@
       <c r="CE190" t="n">
         <v>0</v>
       </c>
+      <c r="CF190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -48104,6 +48676,9 @@
       <c r="CE191" t="n">
         <v>0</v>
       </c>
+      <c r="CF191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -48355,6 +48930,9 @@
       <c r="CE192" t="n">
         <v>0</v>
       </c>
+      <c r="CF192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -48604,6 +49182,9 @@
       <c r="CE193" t="n">
         <v>0</v>
       </c>
+      <c r="CF193" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -48847,6 +49428,9 @@
       <c r="CE194" t="n">
         <v>0</v>
       </c>
+      <c r="CF194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -49102,6 +49686,9 @@
       <c r="CE195" t="n">
         <v>0</v>
       </c>
+      <c r="CF195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -49349,6 +49936,9 @@
       <c r="CE196" t="n">
         <v>0</v>
       </c>
+      <c r="CF196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -49590,6 +50180,9 @@
       <c r="CE197" t="n">
         <v>0</v>
       </c>
+      <c r="CF197" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -49829,6 +50422,9 @@
       <c r="CE198" t="n">
         <v>0</v>
       </c>
+      <c r="CF198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -50068,6 +50664,9 @@
       <c r="CE199" t="n">
         <v>0</v>
       </c>
+      <c r="CF199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -50305,6 +50904,9 @@
         <v>0</v>
       </c>
       <c r="CE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50526,6 +51128,9 @@
       <c r="CE201" t="n">
         <v>0</v>
       </c>
+      <c r="CF201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -50773,6 +51378,9 @@
       <c r="CE202" t="n">
         <v>0</v>
       </c>
+      <c r="CF202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -51024,6 +51632,9 @@
       <c r="CE203" t="n">
         <v>0</v>
       </c>
+      <c r="CF203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -51263,6 +51874,9 @@
       <c r="CE204" t="n">
         <v>0</v>
       </c>
+      <c r="CF204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -51516,6 +52130,9 @@
       <c r="CE205" t="n">
         <v>0</v>
       </c>
+      <c r="CF205" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -51761,6 +52378,9 @@
       <c r="CE206" t="n">
         <v>0</v>
       </c>
+      <c r="CF206" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -52006,6 +52626,9 @@
       <c r="CE207" t="n">
         <v>0</v>
       </c>
+      <c r="CF207" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -52261,6 +52884,9 @@
       <c r="CE208" t="n">
         <v>0</v>
       </c>
+      <c r="CF208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -52516,6 +53142,9 @@
       <c r="CE209" t="n">
         <v>0</v>
       </c>
+      <c r="CF209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -52771,6 +53400,9 @@
       <c r="CE210" t="n">
         <v>0</v>
       </c>
+      <c r="CF210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -53022,6 +53654,9 @@
       <c r="CE211" t="n">
         <v>0</v>
       </c>
+      <c r="CF211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -53261,6 +53896,9 @@
       <c r="CE212" t="n">
         <v>0</v>
       </c>
+      <c r="CF212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -53512,6 +54150,9 @@
       <c r="CE213" t="n">
         <v>0</v>
       </c>
+      <c r="CF213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -53767,6 +54408,9 @@
       <c r="CE214" t="n">
         <v>0</v>
       </c>
+      <c r="CF214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -54002,6 +54646,9 @@
       <c r="CE215" t="n">
         <v>0</v>
       </c>
+      <c r="CF215" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
